--- a/uk-immigration-countries-table-20160612/uk-immigration-countries-table-20160612.xlsx
+++ b/uk-immigration-countries-table-20160612/uk-immigration-countries-table-20160612.xlsx
@@ -434,84 +434,79 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -520,16 +515,184 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Histogram of residents2004</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$A$2:$A$52</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$B$2:$B$52</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$A$2:$A$52</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$C$2:$C$52</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1387978839"/>
+        <c:axId val="2143348678"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1387978839"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143348678"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143348678"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1387978839"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12449175" cy="7705725"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3936,6 +4099,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
